--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H2">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>8737.209343632763</v>
+        <v>262.8951401926118</v>
       </c>
       <c r="R2">
-        <v>78634.88409269488</v>
+        <v>2366.056261733506</v>
       </c>
       <c r="S2">
-        <v>0.01121429183460182</v>
+        <v>0.0004594971029764194</v>
       </c>
       <c r="T2">
-        <v>0.01121429183460182</v>
+        <v>0.0004594971029764194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H3">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I3">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J3">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>67015.06964089427</v>
+        <v>24836.97939131808</v>
       </c>
       <c r="R3">
-        <v>603135.6267680485</v>
+        <v>223532.8145218627</v>
       </c>
       <c r="S3">
-        <v>0.08601448342505695</v>
+        <v>0.04341092067595557</v>
       </c>
       <c r="T3">
-        <v>0.08601448342505692</v>
+        <v>0.04341092067595557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H4">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I4">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J4">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>11142.67640224863</v>
+        <v>3979.606381868241</v>
       </c>
       <c r="R4">
-        <v>100284.0876202377</v>
+        <v>35816.45743681416</v>
       </c>
       <c r="S4">
-        <v>0.0143017318320763</v>
+        <v>0.006955691923841492</v>
       </c>
       <c r="T4">
-        <v>0.0143017318320763</v>
+        <v>0.006955691923841493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H5">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I5">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J5">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>41069.42973518874</v>
+        <v>11217.01939480149</v>
       </c>
       <c r="R5">
-        <v>369624.8676166987</v>
+        <v>100953.1745532134</v>
       </c>
       <c r="S5">
-        <v>0.05271300622626337</v>
+        <v>0.01960548952013851</v>
       </c>
       <c r="T5">
-        <v>0.05271300622626336</v>
+        <v>0.01960548952013851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>749.776932</v>
       </c>
       <c r="I6">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J6">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>5907.191953295363</v>
+        <v>479.583901134012</v>
       </c>
       <c r="R6">
-        <v>53164.72757965828</v>
+        <v>4316.255110206108</v>
       </c>
       <c r="S6">
-        <v>0.007581937422106266</v>
+        <v>0.000838233118511641</v>
       </c>
       <c r="T6">
-        <v>0.007581937422106265</v>
+        <v>0.000838233118511641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>749.776932</v>
       </c>
       <c r="I7">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J7">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>45308.61795370735</v>
@@ -883,10 +883,10 @@
         <v>407777.5615833662</v>
       </c>
       <c r="S7">
-        <v>0.05815404488684187</v>
+        <v>0.07919194959001756</v>
       </c>
       <c r="T7">
-        <v>0.05815404488684184</v>
+        <v>0.07919194959001756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>749.776932</v>
       </c>
       <c r="I8">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J8">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>7533.518517500664</v>
+        <v>7259.758214609316</v>
       </c>
       <c r="R8">
-        <v>67801.66665750596</v>
+        <v>65337.82393148384</v>
       </c>
       <c r="S8">
-        <v>0.009669343136226477</v>
+        <v>0.01268885330279678</v>
       </c>
       <c r="T8">
-        <v>0.009669343136226475</v>
+        <v>0.01268885330279678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>749.776932</v>
       </c>
       <c r="I9">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J9">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>27766.87559111017</v>
+        <v>20462.53847261477</v>
       </c>
       <c r="R9">
-        <v>249901.8803199915</v>
+        <v>184162.8462535329</v>
       </c>
       <c r="S9">
-        <v>0.03563905063585476</v>
+        <v>0.03576512346641793</v>
       </c>
       <c r="T9">
-        <v>0.03563905063585476</v>
+        <v>0.03576512346641793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H10">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I10">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J10">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>1845.989029698186</v>
+        <v>170.2756476767315</v>
       </c>
       <c r="R10">
-        <v>16613.90126728367</v>
+        <v>1532.480829090584</v>
       </c>
       <c r="S10">
-        <v>0.00236934459142782</v>
+        <v>0.0002976135913260615</v>
       </c>
       <c r="T10">
-        <v>0.00236934459142782</v>
+        <v>0.0002976135913260616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H11">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I11">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J11">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>14158.87825461155</v>
+        <v>16086.76656819072</v>
       </c>
       <c r="R11">
-        <v>127429.9042915039</v>
+        <v>144780.8991137165</v>
       </c>
       <c r="S11">
-        <v>0.01817305578394132</v>
+        <v>0.02811699991458909</v>
       </c>
       <c r="T11">
-        <v>0.01817305578394132</v>
+        <v>0.02811699991458909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H12">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I12">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J12">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>2354.213753046636</v>
+        <v>2577.567822952523</v>
       </c>
       <c r="R12">
-        <v>21187.92377741972</v>
+        <v>23198.11040657271</v>
       </c>
       <c r="S12">
-        <v>0.003021655889124116</v>
+        <v>0.004505161055864988</v>
       </c>
       <c r="T12">
-        <v>0.003021655889124116</v>
+        <v>0.004505161055864989</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H13">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I13">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J13">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>8677.108876001477</v>
+        <v>7265.197983701486</v>
       </c>
       <c r="R13">
-        <v>78093.97988401329</v>
+        <v>65386.78185331338</v>
       </c>
       <c r="S13">
-        <v>0.01113715230905017</v>
+        <v>0.01269836111696512</v>
       </c>
       <c r="T13">
-        <v>0.01113715230905017</v>
+        <v>0.01269836111696512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1552.995524333333</v>
+        <v>1469.52242</v>
       </c>
       <c r="H14">
-        <v>4658.986573</v>
+        <v>4408.56726</v>
       </c>
       <c r="I14">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J14">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>36706.28799038158</v>
+        <v>2819.875878713327</v>
       </c>
       <c r="R14">
-        <v>330356.5919134342</v>
+        <v>25378.88290841994</v>
       </c>
       <c r="S14">
-        <v>0.04711287202807584</v>
+        <v>0.004928675349694702</v>
       </c>
       <c r="T14">
-        <v>0.04711287202807584</v>
+        <v>0.004928675349694702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1552.995524333333</v>
+        <v>1469.52242</v>
       </c>
       <c r="H15">
-        <v>4658.986573</v>
+        <v>4408.56726</v>
       </c>
       <c r="I15">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J15">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>281540.0603542565</v>
+        <v>266407.355550067</v>
       </c>
       <c r="R15">
-        <v>2533860.543188309</v>
+        <v>2397666.199950603</v>
       </c>
       <c r="S15">
-        <v>0.361359362671664</v>
+        <v>0.4656358729080263</v>
       </c>
       <c r="T15">
-        <v>0.3613593626716639</v>
+        <v>0.4656358729080263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1552.995524333333</v>
+        <v>1469.52242</v>
       </c>
       <c r="H16">
-        <v>4658.986573</v>
+        <v>4408.56726</v>
       </c>
       <c r="I16">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J16">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>46812.00517447029</v>
+        <v>42686.20574264705</v>
       </c>
       <c r="R16">
-        <v>421308.0465702325</v>
+        <v>384175.8516838234</v>
       </c>
       <c r="S16">
-        <v>0.06008365677674498</v>
+        <v>0.07460840798133909</v>
       </c>
       <c r="T16">
-        <v>0.06008365677674498</v>
+        <v>0.07460840798133909</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1552.995524333333</v>
+        <v>1469.52242</v>
       </c>
       <c r="H17">
-        <v>4658.986573</v>
+        <v>4408.56726</v>
       </c>
       <c r="I17">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J17">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>172538.6512066548</v>
+        <v>120316.4212137429</v>
       </c>
       <c r="R17">
-        <v>1552847.860859893</v>
+        <v>1082847.790923686</v>
       </c>
       <c r="S17">
-        <v>0.221455010550944</v>
+        <v>0.2102931493815388</v>
       </c>
       <c r="T17">
-        <v>0.221455010550944</v>
+        <v>0.2102931493815387</v>
       </c>
     </row>
   </sheetData>
